--- a/BlankCoreApp1.xlsx
+++ b/BlankCoreApp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\BlankCoreApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7391FF5-9C57-42F3-86BD-F496FEC9030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5FF76-CF4A-481A-B3A7-ECD501EB7C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ECABF40F-380D-4FE1-B4D0-65AA7798312B}"/>
   </bookViews>
@@ -80,6 +80,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF009999"/>
+      <color rgb="FF66FFCC"/>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FF6666FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -97,7 +107,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -119,8 +129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="690563" y="8763000"/>
-          <a:ext cx="20716875" cy="7048500"/>
+          <a:off x="1381125" y="8191500"/>
+          <a:ext cx="20716875" cy="7620000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -153,7 +163,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Client</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>層</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -185,12 +231,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8829670" y="9639300"/>
+          <a:off x="9520233" y="9639300"/>
           <a:ext cx="5524500" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="63500"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -256,12 +303,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8558210" y="9486900"/>
+          <a:off x="9248773" y="9486900"/>
           <a:ext cx="5524500" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="63500"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -303,80 +351,9 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E008119-77C2-402B-9951-CF167419B929}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8286750" y="9334500"/>
-          <a:ext cx="5524500" cy="5905500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>AppricationViewModule</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -398,8 +375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29694188" y="8763000"/>
-          <a:ext cx="7596187" cy="7048500"/>
+          <a:off x="30384750" y="8191500"/>
+          <a:ext cx="7596188" cy="7620000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -432,7 +409,26 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Logic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>層</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -446,8 +442,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>542920</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -464,13 +460,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30927671" y="9639300"/>
-          <a:ext cx="5524499" cy="5905500"/>
+          <a:off x="31618234" y="9639300"/>
+          <a:ext cx="5791203" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="63500">
           <a:solidFill>
             <a:schemeClr val="accent5"/>
           </a:solidFill>
@@ -523,7 +519,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>271460</xdr:colOff>
+      <xdr:colOff>547687</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -540,13 +536,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30656211" y="9486900"/>
-          <a:ext cx="5524499" cy="5905500"/>
+          <a:off x="31346774" y="9486900"/>
+          <a:ext cx="5800726" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="63500">
           <a:solidFill>
             <a:schemeClr val="accent5"/>
           </a:solidFill>
@@ -577,617 +573,6 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>ApplicationLogicServiceModule</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CCC6F5-D0A7-4F60-ABBD-2FBC49713A6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1381125" y="9334499"/>
-          <a:ext cx="5524500" cy="5905501"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>CustomControlLibrary</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>基本コントロールの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Base</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>化</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>基本スタイル・ビヘイビア管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>用途別のカスタム化</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1361</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA06FE55-721A-4FCD-A275-C277000944A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22788563" y="9334500"/>
-          <a:ext cx="5525861" cy="5905500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ModelLibrary</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9259AF-A5AB-405A-84F0-FEB57895AA7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30384751" y="9334500"/>
-          <a:ext cx="5524499" cy="5905500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ApplicationLogicServiceModule</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1137093-326F-48A0-8C33-7FF26EFF4C7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1381125" y="1143000"/>
-          <a:ext cx="5524500" cy="1905000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>LogServiceModule</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2042</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453A5667-BAC8-49FE-BA16-1A26D471B688}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8288792" y="1143000"/>
-          <a:ext cx="5522458" cy="4191000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>EXE</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>各</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>DI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>モジュール登録</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Window</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージ管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>MainWindow</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>SubWindow</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>MessageDialog</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>MessageConst</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7F482D-990D-428B-8362-8C6E7EC23A55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15192375" y="9334500"/>
-          <a:ext cx="5524500" cy="5905500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>MvvmServiceLibrary</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1230,8 +615,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28314424" y="12287250"/>
-          <a:ext cx="2070327" cy="12700"/>
+          <a:off x="29004986" y="12287250"/>
+          <a:ext cx="2070328" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1267,8 +652,8 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -1286,13 +671,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="9096885" y="7381365"/>
-          <a:ext cx="3905250" cy="1021"/>
+          <a:off x="10311323" y="7905240"/>
+          <a:ext cx="2857500" cy="1021"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1328,7 +715,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1020</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -1353,12 +740,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16300507" y="83513"/>
-          <a:ext cx="4000500" cy="14501473"/>
+          <a:off x="17562569" y="655014"/>
+          <a:ext cx="2857500" cy="14501472"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 38095"/>
+            <a:gd name="adj1" fmla="val 26667"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="254000" cmpd="sng">
@@ -1415,7 +802,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="13811251" y="12287250"/>
+          <a:off x="14501814" y="12287250"/>
           <a:ext cx="1381125" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1477,7 +864,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6905626" y="12287250"/>
+          <a:off x="7596189" y="12287250"/>
           <a:ext cx="1381125" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1538,8 +925,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="20716875" y="12287250"/>
-          <a:ext cx="2071688" cy="12700"/>
+          <a:off x="21407438" y="12287250"/>
+          <a:ext cx="2071687" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1569,6 +956,1102 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E008119-77C2-402B-9951-CF167419B929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8977313" y="9334500"/>
+          <a:ext cx="5524500" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>AppricationViewModule</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1020</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="260" name="コネクタ: カギ線 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196F2FAA-4220-4CED-8FF5-99F957C7045C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21431761" y="-3214178"/>
+          <a:ext cx="2857500" cy="22239855"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="254000" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1361</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA06FE55-721A-4FCD-A275-C277000944A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23479125" y="9334500"/>
+          <a:ext cx="5525861" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="009999"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ModelLibrary</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>各モジュール間のインターフェイス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>定義</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7F482D-990D-428B-8362-8C6E7EC23A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15882938" y="9334500"/>
+          <a:ext cx="5524500" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MvvmServiceLibrary</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ViewModelBase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>定義</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Logic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>View</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>変換</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>V-VM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>用クラス定義</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Converter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Behavior</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>enum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>etc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CCC6F5-D0A7-4F60-ABBD-2FBC49713A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2071688" y="9334499"/>
+          <a:ext cx="5524500" cy="5905501"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CustomControlLibrary</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>基本コントロールの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Base</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>基本スタイル・ビヘイビア管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>基本コントロールの用途別のカスタム化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="264" name="コネクタ: カギ線 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC07EC2-813A-454A-A4ED-B7378BAD506A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14501813" y="2095500"/>
+          <a:ext cx="4143375" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="254000" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2042</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453A5667-BAC8-49FE-BA16-1A26D471B688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8979355" y="1143000"/>
+          <a:ext cx="5522458" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EXE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>各</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>モジュール登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Window</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メッセージ管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MainWindow</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SubWindow</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MessageDialog</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MessageConst</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1137093-326F-48A0-8C33-7FF26EFF4C7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18645188" y="1143000"/>
+          <a:ext cx="5524500" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>LogServiceModule</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>149226</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="コネクタ: カギ線 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82280AB-C429-45A2-A630-7C9C8FF81B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="22860001" y="4119562"/>
+          <a:ext cx="12700" cy="22240876"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13425000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="254000">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9259AF-A5AB-405A-84F0-FEB57895AA7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31075314" y="9334500"/>
+          <a:ext cx="5810249" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ApplicationLogicServiceModule</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1874,7 +2357,7 @@
   <dimension ref="A18:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/BlankCoreApp1.xlsx
+++ b/BlankCoreApp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\BlankCoreApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5FF76-CF4A-481A-B3A7-ECD501EB7C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C57268-705B-4C3E-B505-56581C100767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ECABF40F-380D-4FE1-B4D0-65AA7798312B}"/>
   </bookViews>
@@ -105,6 +105,328 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="四角形: 角を丸くする 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFA7130-09DA-46AB-8AD4-2443CF569FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29694187" y="8191500"/>
+          <a:ext cx="15192375" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Logic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>層</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>542921</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>542920</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="四角形: 角を丸くする 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D17C591-16EF-4875-BEDE-EB30B7D18232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30927671" y="9639300"/>
+          <a:ext cx="13120687" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ApplicationLogicServiceModule</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>271460</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="四角形: 角を丸くする 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D542C1E7-192F-4556-9156-EBF7BE8FE563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30656211" y="9486900"/>
+          <a:ext cx="13120687" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ApplicationLogicServiceModule</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9259AF-A5AB-405A-84F0-FEB57895AA7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30384751" y="9334500"/>
+          <a:ext cx="13120687" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ApplicationLogicServiceModule</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
@@ -171,7 +493,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Client</a:t>
+            <a:t>View</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
@@ -303,7 +625,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9248773" y="9486900"/>
+          <a:off x="8558210" y="9486900"/>
           <a:ext cx="5524500" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -336,243 +658,6 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>AppricationViewModule</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="246" name="四角形: 角を丸くする 245">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFA7130-09DA-46AB-8AD4-2443CF569FBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30384750" y="8191500"/>
-          <a:ext cx="7596188" cy="7620000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Logic</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>層</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>542921</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="四角形: 角を丸くする 247">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D69EAA7-E402-4BBF-B274-BFAC720C7EEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31618234" y="9639300"/>
-          <a:ext cx="5791203" cy="5905500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="63500">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ApplicationLogicServiceModule</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>271461</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="247" name="四角形: 角を丸くする 246">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24249480-B027-4CAD-ABBD-559301CBB929}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31346774" y="9486900"/>
-          <a:ext cx="5800726" cy="5905500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="63500">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ApplicationLogicServiceModule</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -615,8 +700,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29004986" y="12287250"/>
-          <a:ext cx="2070328" cy="12700"/>
+          <a:off x="28314424" y="12287250"/>
+          <a:ext cx="2070327" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -651,13 +736,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1020</xdr:colOff>
+      <xdr:colOff>1021</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -678,8 +763,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="10311323" y="7905240"/>
-          <a:ext cx="2857500" cy="1021"/>
+          <a:off x="9620761" y="7905241"/>
+          <a:ext cx="2857499" cy="1021"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -714,15 +799,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1020</xdr:colOff>
+      <xdr:colOff>1021</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>680</xdr:colOff>
+      <xdr:colOff>681</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -740,18 +825,19 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="17562569" y="655014"/>
-          <a:ext cx="2857500" cy="14501472"/>
+          <a:off x="16872008" y="655013"/>
+          <a:ext cx="2857499" cy="14501473"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 26667"/>
+            <a:gd name="adj1" fmla="val 34167"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="254000" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="FFC000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -1033,15 +1119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1020</xdr:colOff>
+      <xdr:colOff>1022</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>345283</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1059,12 +1145,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="21431761" y="-3214178"/>
-          <a:ext cx="2857500" cy="22239855"/>
+          <a:off x="22568809" y="-5041787"/>
+          <a:ext cx="2857499" cy="25895074"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 26667"/>
+            <a:gd name="adj1" fmla="val 33333"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="254000" cmpd="sng">
@@ -1260,7 +1346,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>MvvmServiceLibrary</a:t>
+            <a:t>MvvmCommonLibrary</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1383,20 +1469,6 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>Converter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Behavior</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
@@ -1585,79 +1657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2042</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="264" name="コネクタ: カギ線 263">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC07EC2-813A-454A-A4ED-B7378BAD506A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14501813" y="2095500"/>
-          <a:ext cx="4143375" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="254000" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2042</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1672,8 +1681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8979355" y="1143000"/>
-          <a:ext cx="5522458" cy="5334000"/>
+          <a:off x="5526542" y="1143001"/>
+          <a:ext cx="11046958" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1838,16 +1847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1862,8 +1871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18645188" y="1143000"/>
-          <a:ext cx="5524500" cy="1905000"/>
+          <a:off x="10358438" y="1714500"/>
+          <a:ext cx="5524500" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1898,11 +1907,8 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>LogServiceModule</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>LogService</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1917,13 +1923,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>184151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>149226</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>351632</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>6351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1942,12 +1948,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="22860001" y="4119562"/>
-          <a:ext cx="12700" cy="22240876"/>
+          <a:off x="23997048" y="2291953"/>
+          <a:ext cx="12700" cy="25896095"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 13425000"/>
+            <a:gd name="adj1" fmla="val 8925000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="254000">
@@ -1977,23 +1983,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+        <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9259AF-A5AB-405A-84F0-FEB57895AA7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7CA7C7-ACA3-4955-AC5E-C66A27B089C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,8 +2007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31075314" y="9334500"/>
-          <a:ext cx="5810249" cy="5905500"/>
+          <a:off x="37290375" y="10096500"/>
+          <a:ext cx="5810249" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2010,7 +2016,7 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln w="63500">
+        <a:ln w="12700">
           <a:solidFill>
             <a:schemeClr val="accent5"/>
           </a:solidFill>
@@ -2040,11 +2046,236 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ApplicationLogicServiceModule</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>Database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F009A64-F46B-4A2A-8A01-51CB4679D689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37290375" y="12573000"/>
+          <a:ext cx="5810249" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>File</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="四角形: 角を丸くする 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B85E81D-1CA3-42B8-84C7-FA6675A0E333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10358438" y="3238500"/>
+          <a:ext cx="5524500" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MessageService</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="四角形: 角を丸くする 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7143C33-AE0A-460B-9E59-731969BBA4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10358438" y="4762500"/>
+          <a:ext cx="5524500" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ViewContentService</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -2357,7 +2588,7 @@
   <dimension ref="A18:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/BlankCoreApp1.xlsx
+++ b/BlankCoreApp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\BlankCoreApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C57268-705B-4C3E-B505-56581C100767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201CD3D9-8A78-4AB7-A783-4CFE4D6DF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ECABF40F-380D-4FE1-B4D0-65AA7798312B}"/>
   </bookViews>
@@ -105,6 +105,113 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCFEAEB-7CF8-44DE-94A4-E8D2987110B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17954626" y="381000"/>
+          <a:ext cx="8286750" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>層</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>43</xdr:row>
@@ -411,7 +518,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ApplicationLogicServiceModule</a:t>
+            <a:t>ApplicationLogicModule</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -738,13 +845,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1021</xdr:colOff>
+      <xdr:colOff>12928</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -763,8 +870,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="9620761" y="7905241"/>
-          <a:ext cx="2857499" cy="1021"/>
+          <a:off x="9626714" y="7899286"/>
+          <a:ext cx="2857500" cy="12928"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -799,7 +906,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1021</xdr:colOff>
+      <xdr:colOff>12928</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -807,7 +914,7 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>681</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -825,12 +932,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16872008" y="655013"/>
-          <a:ext cx="2857499" cy="14501473"/>
+          <a:off x="16877961" y="660967"/>
+          <a:ext cx="2857500" cy="14489566"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 34167"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="254000" cmpd="sng">
@@ -1119,15 +1226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1022</xdr:colOff>
+      <xdr:colOff>12927</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>345283</xdr:colOff>
+      <xdr:colOff>345281</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1145,12 +1252,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="22568809" y="-5041787"/>
-          <a:ext cx="2857499" cy="25895074"/>
+          <a:off x="22574761" y="-5035834"/>
+          <a:ext cx="2857500" cy="25883167"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 33333"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="254000" cmpd="sng">
@@ -1657,16 +1764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2042</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25855</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1681,8 +1788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5526542" y="1143001"/>
-          <a:ext cx="11046958" cy="5334000"/>
+          <a:off x="8312605" y="1143000"/>
+          <a:ext cx="5498645" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1847,16 +1954,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1871,7 +1978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10358438" y="1714500"/>
+          <a:off x="20026313" y="1619250"/>
           <a:ext cx="5524500" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2141,16 +2248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2165,7 +2272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10358438" y="3238500"/>
+          <a:off x="20026313" y="3190875"/>
           <a:ext cx="5524500" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2214,13 +2321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2238,7 +2345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10358438" y="4762500"/>
+          <a:off x="20026313" y="4762500"/>
           <a:ext cx="5524500" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2588,7 +2695,7 @@
   <dimension ref="A18:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/BlankCoreApp1.xlsx
+++ b/BlankCoreApp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\BlankCoreApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5FE44B-5761-4C26-AE71-109B7088781E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013C3D11-D161-4CDB-B293-0A5D88ADBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ECABF40F-380D-4FE1-B4D0-65AA7798312B}"/>
   </bookViews>
@@ -584,15 +584,15 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 29414"/>
+            <a:gd name="adj1" fmla="val 58667"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="508000">
           <a:solidFill>
             <a:schemeClr val="accent4"/>
           </a:solidFill>
-          <a:headEnd type="none" w="med" len="sm"/>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="triangle" w="med" len="sm"/>
+          <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -701,8 +701,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -717,8 +717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619126" y="952500"/>
-          <a:ext cx="6977062" cy="6286500"/>
+          <a:off x="619126" y="865909"/>
+          <a:ext cx="7000874" cy="5888183"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1023,15 +1023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>390523</xdr:colOff>
+      <xdr:colOff>355887</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>390523</xdr:colOff>
+      <xdr:colOff>355887</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1046,7 +1046,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8677273" y="9486900"/>
+          <a:off x="8642637" y="9510712"/>
           <a:ext cx="5524500" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1313,7 +1313,7 @@
         </a:prstGeom>
         <a:ln w="12700">
           <a:solidFill>
-            <a:srgbClr val="009999"/>
+            <a:schemeClr val="accent4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1949,14 +1949,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1971,8 +1971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="2286000"/>
-          <a:ext cx="5524500" cy="1238250"/>
+          <a:off x="1381125" y="2476500"/>
+          <a:ext cx="5524500" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2022,14 +2022,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2044,8 +2044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="3810000"/>
-          <a:ext cx="5524500" cy="1238250"/>
+          <a:off x="1381125" y="4000500"/>
+          <a:ext cx="5524500" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2096,13 +2096,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2117,8 +2117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="5334000"/>
-          <a:ext cx="5524500" cy="1238250"/>
+          <a:off x="1381125" y="5476875"/>
+          <a:ext cx="5524500" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3085,15 +3085,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>684213</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>686379</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>6352</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>23668</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3111,8 +3111,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="10572751" y="13239750"/>
-          <a:ext cx="952500" cy="12700"/>
+          <a:off x="10728615" y="11092296"/>
+          <a:ext cx="710045" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3148,13 +3148,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3170,8 +3170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8977313" y="11811000"/>
-          <a:ext cx="4143375" cy="952500"/>
+          <a:off x="9005455" y="10079182"/>
+          <a:ext cx="4156363" cy="658091"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3202,7 +3202,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ViewModel</a:t>
+            <a:t>View</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3220,14 +3220,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3242,8 +3242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8977313" y="13716000"/>
-          <a:ext cx="4143375" cy="952500"/>
+          <a:off x="9005455" y="11447318"/>
+          <a:ext cx="4156363" cy="692727"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3274,7 +3274,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>View</a:t>
+            <a:t>ViewModel</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3359,6 +3359,646 @@
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: 角を丸くする 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8143EA7D-3497-40A2-A98A-BF6BD0325BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15932727" y="25630909"/>
+          <a:ext cx="4156364" cy="865909"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DatabaseUtility</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFC234B-D96A-4256-80DC-4A711CA0B75C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15932727" y="26843182"/>
+          <a:ext cx="4156364" cy="865909"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>FileUtility</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="四角形: 角を丸くする 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62BFBB8-EF11-4491-B124-D67FD97886CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15932727" y="28055455"/>
+          <a:ext cx="4156364" cy="865909"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>StringUtility</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="四角形: 角を丸くする 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDE7D42-F5D7-4EA9-9CC3-E36F06DA7BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9005455" y="12815455"/>
+          <a:ext cx="4156363" cy="692727"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>686378</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>23668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367C203F-1D5D-41BF-873D-F0D1C6383C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="0"/>
+          <a:endCxn id="47" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="10745932" y="12477750"/>
+          <a:ext cx="675410" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="254000">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="sm"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="四角形: 角を丸くする 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748ECFDE-E248-4120-AB2E-7953C0A89BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9005455" y="17837728"/>
+          <a:ext cx="4156363" cy="692727"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ServiceInterface</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>692726</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA2FEAE-EC50-49C9-B96F-7B177D519864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9005454" y="18703637"/>
+          <a:ext cx="4156363" cy="692727"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>LogicInputModel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="四角形: 角を丸くする 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903D18A5-4247-46CD-9CE0-068B3D86BCAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014980" y="19586864"/>
+          <a:ext cx="4146838" cy="692727"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>LogicResultModel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="四角形: 角を丸くする 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899523F5-741B-45EF-B163-24FB91BDE750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014980" y="20504728"/>
+          <a:ext cx="4146838" cy="692727"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Enumerate</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3664,29 +4304,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045DDA2F-66AE-45A6-91BF-F541BE745572}">
-  <dimension ref="A18:A99"/>
+  <dimension ref="A33:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R134" sqref="R134"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK75" sqref="AK75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/BlankCoreApp1.xlsx
+++ b/BlankCoreApp1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\BlankCoreApp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\Prism7DotNetCore3Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013C3D11-D161-4CDB-B293-0A5D88ADBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087276E-58C2-44B0-A9A6-8A8333828A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ECABF40F-380D-4FE1-B4D0-65AA7798312B}"/>
   </bookViews>
@@ -3085,15 +3085,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>686379</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>684213</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>6352</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>23668</xdr:rowOff>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>125413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3111,8 +3111,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="10728615" y="11092296"/>
-          <a:ext cx="710045" cy="12700"/>
+          <a:off x="10679907" y="12132469"/>
+          <a:ext cx="738188" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3148,14 +3148,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3170,8 +3170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9005455" y="10079182"/>
-          <a:ext cx="4156363" cy="658091"/>
+          <a:off x="8977313" y="10977563"/>
+          <a:ext cx="4143375" cy="785812"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3220,14 +3220,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3242,8 +3242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9005455" y="11447318"/>
-          <a:ext cx="4156363" cy="692727"/>
+          <a:off x="8977313" y="12501563"/>
+          <a:ext cx="4143375" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3620,8 +3620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9005455" y="12815455"/>
-          <a:ext cx="4156363" cy="692727"/>
+          <a:off x="8977313" y="14097000"/>
+          <a:ext cx="4143375" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3669,13 +3669,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>686378</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>23668</xdr:rowOff>
+      <xdr:colOff>684214</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
+      <xdr:colOff>6352</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -3695,8 +3695,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="10745932" y="12477750"/>
-          <a:ext cx="675410" cy="12700"/>
+          <a:off x="10632283" y="13680282"/>
+          <a:ext cx="833437" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4306,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045DDA2F-66AE-45A6-91BF-F541BE745572}">
   <dimension ref="A33:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AK75" sqref="AK75"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/BlankCoreApp1.xlsx
+++ b/BlankCoreApp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa0_\source\repos\Prism7DotNetCore3Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087276E-58C2-44B0-A9A6-8A8333828A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA95DB6E-8D20-46EF-89EB-E4EE4A4FBDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ECABF40F-380D-4FE1-B4D0-65AA7798312B}"/>
   </bookViews>
@@ -109,13 +109,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -218,13 +218,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -297,13 +297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -376,13 +376,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -438,13 +438,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -552,13 +552,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>682</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
@@ -614,13 +614,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -693,13 +693,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>619126</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -824,13 +824,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -950,13 +950,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1022,13 +1022,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>355887</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>355887</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
@@ -1094,13 +1094,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>12928</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1157,13 +1157,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>682</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1219,13 +1219,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -1281,13 +1281,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>1361</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1391,13 +1391,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1623,13 +1623,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1757,13 +1757,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>25855</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1947,13 +1947,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2020,13 +2020,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2093,13 +2093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -2166,13 +2166,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>144</xdr:row>
       <xdr:rowOff>71440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>150</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
@@ -2245,13 +2245,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>170</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
@@ -2324,13 +2324,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>3</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
@@ -2403,13 +2403,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>71440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>71440</xdr:rowOff>
@@ -2482,13 +2482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
       <xdr:row>166</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>166689</xdr:rowOff>
@@ -2561,13 +2561,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>345281</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>345283</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2623,13 +2623,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>345283</xdr:colOff>
       <xdr:row>150</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
@@ -2685,13 +2685,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>690560</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>3</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2747,13 +2747,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>59534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2809,13 +2809,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>178596</xdr:rowOff>
@@ -2871,13 +2871,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>690560</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -2950,13 +2950,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -3012,13 +3012,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3084,13 +3084,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>684213</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>6351</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
@@ -3146,13 +3146,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -3218,13 +3218,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
@@ -3290,13 +3290,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3366,13 +3366,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3445,13 +3445,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3524,13 +3524,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3596,13 +3596,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3668,13 +3668,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>684214</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>6352</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -3730,13 +3730,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3799,13 +3799,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>692726</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3868,13 +3868,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -3937,13 +3937,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
@@ -4304,41 +4304,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045DDA2F-66AE-45A6-91BF-F541BE745572}">
-  <dimension ref="A33:A99"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AI44" sqref="AI44"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
